--- a/medicine/Mort/Destination_finale_4/Destination_finale_4.xlsx
+++ b/medicine/Mort/Destination_finale_4/Destination_finale_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Destination finale 4 ou La destination ultime au Québec (The Final Destination) est un film d'horreur américain réalisé par David Richard Ellis, sorti en 2009. C'est le quatrième opus de la franchise Destination finale.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nick O'Bannon, étudiant à l'université, assiste à une course automobile avec sa petite amie Lori Milligan et leurs amis Hunt Wynorski et Janet Cunningham. En regardant la course, Nick a la prémonition d'un horrible accident de voiture qui envoie des débris dans les gradins, provoquant l'effondrement du stade. Lorsque Nick panique, une bagarre éclate et plusieurs personnes quittent le stade, dont Lori, Hunt, Janet, le garde de sécurité George Lanter, le mécanicien Andy Kewzer, sa petite amie Nadia Monroy, le chauffeur de dépanneuse raciste Carter Daniels et la mère de famille Samantha Lane. Alors que Nadia réprimande le groupe, un pneu s'envole soudainement hors du stade et la décapite.
 Plusieurs jours après l'accident, Carter tente de mettre le feu à une croix sur la pelouse de George, qu'il tient pour responsable de la mort de sa femme, mais une réaction en chaîne l'entraîne dans la rue avant que sa dépanneuse n'explose. Le lendemain, Samantha quitte un salon de beauté lorsqu'une pierre propulsée par une tondeuse à gazon est soudainement projetée et va se loger dans son œil, la tuant sur le coup. Après avoir lu les événements dans le journal et pris connaissance des accidents des films précédents, Nick et Lori deviennent convaincus que la Mort est toujours après eux. Hunt et Janet refusent de les croire, mais ils parviennent à convaincre George de les aider. Le groupe part avertir Andy au garage où il travaille, mais celui-ci est tué lorsqu'une bouteille de gaz le projette contre le grillage, le coupant en morceaux. Après avoir eu une prémonition impliquant de l'eau, Nick tente d'avertir Hunt, qui est allé à la piscine. En même temps, George et Lori tentent de retrouver Janet, qui se retrouve coincée dans sa voiture au lavage automatique, et ils parviennent à la sauver à la dernière seconde. Hunt met accidentellement le siphon de la piscine en marche et lorsqu'il plonge, il est aspiré vers le drain, où l'aspiration expulse ses organes par la tuyauterie près de la piscine. Par la suite, George admet qu'il a tenté de se suicider à plusieurs reprises, mais toutes ses tentatives ont échoué. Nick croit que sauver Janet a dû ruiner le plan de la Mort et le groupe fait la fête.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Final Destination
 Titre français : Destination finale 4
@@ -563,23 +579,23 @@
 Coproduction : Art Schaefer
 Production déléguée : Richard Brener, Walter Hamada, Sheila Hanahan
 Production associée : Tawny Ellis
-Sociétés de production[1] : Practical Pictures, Parallel Zide et FlipZide Pictures, avec la participation de New Line Cinema
-Sociétés de distribution[1] :
+Sociétés de production : Practical Pictures, Parallel Zide et FlipZide Pictures, avec la participation de New Line Cinema
+Sociétés de distribution :
 États-Unis, Canada, Belgique : Warner Bros.
 France : Metropolitan FilmExport
-Budget : 40 millions de $[2]
+Budget : 40 millions de $
 Pays d'origine :  États-Unis
 Langue originale : anglais
-Format[3] : couleur (DeLuxe) - 35 mm - 2,39:1 (Cinémascope) - son DTS | Dolby Digital | SDDS
+Format : couleur (DeLuxe) - 35 mm - 2,39:1 (Cinémascope) - son DTS | Dolby Digital | SDDS
 Genre : épouvante-horreur, thriller, action, fantastique
 Durée : 82 minutes
-Dates de sortie[4] :
+Dates de sortie :
 France, Suisse romande : 26 août 2009
-États-Unis, Québec[5] : 28 août 2009
+États-Unis, Québec : 28 août 2009
 Belgique : 16 septembre 2009
-Classification[6] :
+Classification :
  États-Unis : Interdit aux moins de 17 ans (R – Restricted)[Note 1].
- France : Interdit aux moins de 12 ans (visa d'exploitation no 123954 délivré le 30 juillet 2009)[7],[8],[Note 2]lors de sa sortie en salles et aux moins de 16 ans à la télévision.</t>
+ France : Interdit aux moins de 12 ans (visa d'exploitation no 123954 délivré le 30 juillet 2009)[Note 2]lors de sa sortie en salles et aux moins de 16 ans à la télévision.</t>
         </is>
       </c>
     </row>
@@ -607,7 +623,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bobby Campo (VF : Yoann Sover ; VQ : Gabriel Lessard) : Nick O'Bannon
 Shantel VanSanten (VF : Aurélie Meriel ; VQ : Éveline Gélinas) : Lori Milligan
@@ -653,6 +671,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -680,11 +700,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Le film a obtenu globalement des critiques négatives, les plus mauvaises de toute la série de films. Il recueille 27 % de critiques positives, avec un score moyen de 4,1/10 et sur la base de 99 critiques collectées, sur le site Rotten Tomatoes[9]. Sur Metacritic, il obtient un score de 30/100, sur la base de 14 critiques collectées[10].
-Box-office
-Il s'agit du film le plus rentable de la saga Destination finale, il a cumulé 186 167 139 dollars de recettes mondiales, et 66 477 700 dollars en Amérique du Nord[2]. En France, il a réalisé 1 109 984 entrées, c'est le seul opus de la saga à dépasser le million d'entrées[11].
-Les ventes de DVD ont rapporté au moins 10 609 400 $[12].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a obtenu globalement des critiques négatives, les plus mauvaises de toute la série de films. Il recueille 27 % de critiques positives, avec un score moyen de 4,1/10 et sur la base de 99 critiques collectées, sur le site Rotten Tomatoes. Sur Metacritic, il obtient un score de 30/100, sur la base de 14 critiques collectées.
 </t>
         </is>
       </c>
@@ -710,18 +732,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Entre 2007 et 2011, Destination finale 4 a été sélectionné 4 fois dans diverses catégories et a remporté 2 récompenses[13].
-Récompenses
-Société Américaine des Compositeurs, Auteurs et Éditeurs de Musique 2010 : Prix ASCAP des Meilleurs films au box-office décerné à Brian Tyler.
-Société Américaine des Compositeurs, Auteurs et Éditeurs de Musique 2011 : Prix ASCAP des Meilleurs films au box-office décerné à Brian Tyler.
-Nominations
-Taurus - Prix mondiaux des cascades 2007 : Meilleur coup de feu.
-Prix Fangoria Chainsaw 2010 : Pire film.</t>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit du film le plus rentable de la saga Destination finale, il a cumulé 186 167 139 dollars de recettes mondiales, et 66 477 700 dollars en Amérique du Nord. En France, il a réalisé 1 109 984 entrées, c'est le seul opus de la saga à dépasser le million d'entrées.
+Les ventes de DVD ont rapporté au moins 10 609 400 $.
+</t>
         </is>
       </c>
     </row>
@@ -746,10 +770,119 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2007 et 2011, Destination finale 4 a été sélectionné 4 fois dans diverses catégories et a remporté 2 récompenses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Destination_finale_4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Société Américaine des Compositeurs, Auteurs et Éditeurs de Musique 2010 : Prix ASCAP des Meilleurs films au box-office décerné à Brian Tyler.
+Société Américaine des Compositeurs, Auteurs et Éditeurs de Musique 2011 : Prix ASCAP des Meilleurs films au box-office décerné à Brian Tyler.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Destination_finale_4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Taurus - Prix mondiaux des cascades 2007 : Meilleur coup de feu.
+Prix Fangoria Chainsaw 2010 : Pire film.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Destination_finale_4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Le nombre 180 que l'on retrouve dans chaque épisode de la saga (le Vol 180 de Destination finale, on retrouve ce nombre à la fin de ce même film lors de la scène à Paris, le panneau 180 avant l'accident de Destination finale 2, le métro de Destination finale 3) se retrouve ici : les tribunes où Nick et les autres victimes sont assis sont les tribunes 180. Et l'une des caméras de surveillance qui ont filmé l'accident du circuit porte aussi le numéro 180. On voit aussi le nombre 180 sur un bus vers la fin.
 Le nom du circuit où se déroule l'accident est le "McKinley Speedway", même nom que le lycée de la classe de Wendy dans Destination finale 3, ainsi qu'une référence à un personnage (Ian McKinley), également dans Destination Finale 3.
